--- a/sample/aws_configuration.xlsx
+++ b/sample/aws_configuration.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="EC2(summary)" sheetId="1" r:id="rId1"/>
-    <sheet name="EC2(detail)" sheetId="2" r:id="rId2"/>
+    <sheet name="EC2(summary)" sheetId="1" r:id="rId4"/>
+    <sheet name="EC2(detail)" sheetId="2" r:id="rId5"/>
+    <sheet name="SecurityGroup" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="189">
   <si>
     <t>InstanceId</t>
   </si>
@@ -222,34 +223,383 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>sg-991c9e99</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>allow_all</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>full open &gt;&lt;;</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Port Range</t>
+  </si>
+  <si>
+    <t>Src/Dst</t>
+  </si>
+  <si>
+    <t>Ingress</t>
+  </si>
+  <si>
+    <t>Custom TCP Rule</t>
+  </si>
+  <si>
+    <t>tcp</t>
+  </si>
+  <si>
+    <t>0 - 65535</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0</t>
+  </si>
+  <si>
+    <t>80 - 81</t>
+  </si>
+  <si>
+    <t>sg-32ee8633</t>
+  </si>
+  <si>
+    <t>default group</t>
+  </si>
+  <si>
+    <t>Custom UDP Rule</t>
+  </si>
+  <si>
+    <t>udp</t>
+  </si>
+  <si>
+    <t>All ICMP</t>
+  </si>
+  <si>
+    <t>icmp</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>sg-53c54653</t>
+  </si>
+  <si>
+    <t>Fortinet FortiGate-VM-v5-0-9-AutogenByAWSMP-</t>
+  </si>
+  <si>
+    <t>This security group was generated by AWS Marketplace and is based on recommended settings for Fortinet FortiGate-VM version v5.0.9 provided by Fortinet Inc.</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>DNS(UDP)</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>36.2.107.75/32</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>sg-9fb9e99e</t>
+  </si>
+  <si>
+    <t>launch-wizard-1</t>
+  </si>
+  <si>
+    <t>launch-wizard-1 created on Friday, October 25, 2013 3:01:10 PM UTC+9</t>
+  </si>
+  <si>
+    <t>101.102.137.225/32</t>
+  </si>
+  <si>
+    <t>sg-11baea10</t>
+  </si>
+  <si>
+    <t>launch-wizard-2</t>
+  </si>
+  <si>
+    <t>launch-wizard-2 created on Friday, October 25, 2013 3:10:11 PM UTC+9</t>
+  </si>
+  <si>
+    <t>RDP</t>
+  </si>
+  <si>
+    <t>sg-fd5062fc</t>
+  </si>
+  <si>
+    <t>launch-wizard-3</t>
+  </si>
+  <si>
+    <t>launch-wizard-3 created on Sunday, March 30, 2014 12:59:41 AM UTC+9</t>
+  </si>
+  <si>
+    <t>sg-b10aecd4</t>
+  </si>
+  <si>
+    <t>launch-wizard-1 created on Sunday, March 30, 2014 1:07:35 AM UTC+9</t>
+  </si>
+  <si>
+    <t>Egress</t>
+  </si>
+  <si>
+    <t>All traffic</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>sg-5c4cab39</t>
+  </si>
+  <si>
+    <t>default VPC security group</t>
+  </si>
+  <si>
+    <t>1.1.1.1/32</t>
+  </si>
+  <si>
+    <t>sg-cb0970ae</t>
+  </si>
+  <si>
+    <t>launch-wizard-13</t>
+  </si>
+  <si>
+    <t>launch-wizard-13 created 2015-08-14T01:29:03.192+09:00</t>
+  </si>
+  <si>
+    <t>sg-5108ee34</t>
+  </si>
+  <si>
+    <t>launch-wizard-2 created on Sunday, March 30, 2014 1:51:20 AM UTC+9</t>
+  </si>
+  <si>
+    <t>sg-a9822ecc</t>
+  </si>
+  <si>
+    <t>sg-bdf590d8</t>
+  </si>
+  <si>
+    <t>launch-wizard-9</t>
+  </si>
+  <si>
+    <t>launch-wizard-9 created 2015-06-12T00:25:35.077+09:00</t>
+  </si>
+  <si>
+    <t>web-server</t>
+  </si>
+  <si>
+    <t>sg-web-server</t>
+  </si>
+  <si>
+    <t>sg-b6822ed3</t>
+  </si>
+  <si>
+    <t>db-server</t>
+  </si>
+  <si>
+    <t>sg-db-server</t>
+  </si>
+  <si>
+    <t>sg-2da11148</t>
+  </si>
+  <si>
+    <t>launch-wizard-8</t>
+  </si>
+  <si>
+    <t>launch-wizard-8 created 2015-02-18T23:45:03.904+09:00</t>
+  </si>
+  <si>
+    <t>sg-f8d6699d</t>
+  </si>
+  <si>
+    <t>from my home</t>
+  </si>
+  <si>
+    <t>150.67.0.0/24</t>
+  </si>
+  <si>
+    <t>sg-da9d33bf</t>
+  </si>
+  <si>
+    <t>allow-all</t>
+  </si>
+  <si>
+    <t>sg-23980746</t>
+  </si>
+  <si>
+    <t>vpc-6eb2690b</t>
+  </si>
+  <si>
+    <t>sg-aa2686cf</t>
+  </si>
+  <si>
+    <t>launch-wizard-5</t>
+  </si>
+  <si>
+    <t>launch-wizard-5 created 2015-01-05T19:19:21.848+09:00</t>
+  </si>
+  <si>
+    <t>0:All</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>sg-6ad86e0f</t>
+  </si>
+  <si>
+    <t>launch-wizard-7</t>
+  </si>
+  <si>
+    <t>launch-wizard-7 created 2015-02-13T00:03:36.346+09:00</t>
+  </si>
+  <si>
+    <t>sg-f07cdd95</t>
+  </si>
+  <si>
+    <t>launch-wizard-4</t>
+  </si>
+  <si>
+    <t>launch-wizard-4 created 2015-01-01T00:23:11.368+09:00</t>
+  </si>
+  <si>
+    <t>sg-1e58307b</t>
+  </si>
+  <si>
+    <t>launch-wizard-10</t>
+  </si>
+  <si>
+    <t>launch-wizard-10 created 2015-07-13T23:24:38.556+09:00</t>
+  </si>
+  <si>
+    <t>sg-5918393c</t>
+  </si>
+  <si>
+    <t>launch-wizard-14</t>
+  </si>
+  <si>
+    <t>launch-wizard-14 created 2015-10-24T11:28:32.816+09:00</t>
+  </si>
+  <si>
+    <t>sg-427cdd27</t>
+  </si>
+  <si>
+    <t>This security group was generated by AWS Marketplace and is based on recommended settings for Fortinet FortiGate-VM version v5.0.9 provided by Fortinet, Inc.</t>
+  </si>
+  <si>
+    <t>sg-482f932d</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>sg-1fcc2d7a</t>
+  </si>
+  <si>
+    <t>launch-wizard-3 created on Thursday, April 3, 2014 5:29:36 PM UTC+9</t>
+  </si>
+  <si>
+    <t>sg-7fb7311a</t>
+  </si>
+  <si>
+    <t>between instance applied home</t>
+  </si>
+  <si>
+    <t>sg-b29c32d7</t>
+  </si>
+  <si>
+    <t>launch-wizard-6</t>
+  </si>
+  <si>
+    <t>launch-wizard-6 created 2015-01-23T20:41:43.517+09:00</t>
+  </si>
+  <si>
+    <t>sg-8a53d6ef</t>
+  </si>
+  <si>
+    <t>web-server-sg</t>
+  </si>
+  <si>
+    <t>Allow traffic of webserver</t>
+  </si>
+  <si>
+    <t>sg-22980747</t>
+  </si>
+  <si>
+    <t>customer-mainte-sg</t>
+  </si>
+  <si>
+    <t>maintenance from outsource</t>
+  </si>
+  <si>
+    <t>sg-b9166fdc</t>
+  </si>
+  <si>
+    <t>launch-wizard-12</t>
+  </si>
+  <si>
+    <t>launch-wizard-12 created 2015-08-14T01:20:36.919+09:00</t>
+  </si>
+  <si>
+    <t>sg-ce5931ab</t>
+  </si>
+  <si>
+    <t>launch-wizard-11</t>
+  </si>
+  <si>
+    <t>launch-wizard-11 created 2015-07-13T23:43:02.035+09:00</t>
+  </si>
+  <si>
+    <t>sg-eceb5889</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Custom ICMP Rule</t>
+  </si>
+  <si>
+    <t>30 - -1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="3">
@@ -261,7 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF191970"/>
+        <fgColor rgb="00191970"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,13 +642,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,15 +662,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -356,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,20 +811,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -593,7 +942,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -602,82 +990,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s" s="2">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -685,336 +1075,4103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="46" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="1">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s" s="2">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E289"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4">
+        <v>541</v>
+      </c>
+      <c r="E24" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D25" s="4">
+        <v>703</v>
+      </c>
+      <c r="E25" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E26" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E27" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8008</v>
+      </c>
+      <c r="E28" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8009</v>
+      </c>
+      <c r="E29" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D30" s="4">
+        <v>8010</v>
+      </c>
+      <c r="E30" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D31" s="4">
+        <v>8900</v>
+      </c>
+      <c r="E31" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D32" s="4">
+        <v>10443</v>
+      </c>
+      <c r="E32" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D33" s="4">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D35" s="4">
+        <v>443</v>
+      </c>
+      <c r="E35" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D42" s="4">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D43" s="4">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D44" s="4">
+        <v>443</v>
+      </c>
+      <c r="E44" t="s" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D51" s="4">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D52" s="4">
+        <v>80</v>
+      </c>
+      <c r="E52" t="s" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D53" s="4">
+        <v>443</v>
+      </c>
+      <c r="E53" t="s" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D54" s="4">
+        <v>3389</v>
+      </c>
+      <c r="E54" t="s" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E60" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D61" s="4">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D67" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C68" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D68" s="4">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E75" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="E76" t="s" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D77" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E77" t="s" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B78" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C78" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E78" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E84" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="C85" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3389</v>
+      </c>
+      <c r="E85" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B86" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D86" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E86" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B92" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D92" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E92" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B93" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D93" s="4">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B94" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E94" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D100" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E100" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B101" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D101" s="4">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B102" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E102" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B108" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C108" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D108" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E108" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B109" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E109" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="C110" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="D110" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="E110" t="s" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B116" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C116" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D116" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E116" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B117" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="C117" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="D117" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="E117" t="s" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C118" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E118" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B124" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C124" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D124" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E124" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B125" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C125" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D125" s="4">
+        <v>80</v>
+      </c>
+      <c r="E125" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B126" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C126" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D126" s="4">
+        <v>22</v>
+      </c>
+      <c r="E126" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B127" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C127" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D127" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E127" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B128" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C128" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D128" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E128" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B134" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C134" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D134" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E134" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B135" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C135" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D135" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E135" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B136" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C136" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D136" s="4">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B137" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C137" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D137" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E137" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B143" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C143" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D143" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E143" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B144" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C144" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D144" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E144" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B145" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C145" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D145" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E145" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B151" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C151" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D151" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E151" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B152" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C152" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D152" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E152" t="s" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B153" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C153" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D153" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E153" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B159" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C159" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D159" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E159" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B160" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C160" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D160" s="4">
+        <v>22</v>
+      </c>
+      <c r="E160" t="s" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B161" t="s" s="4">
+        <v>147</v>
+      </c>
+      <c r="C161" t="s" s="4">
+        <v>148</v>
+      </c>
+      <c r="D161" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E161" t="s" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B162" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C162" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D162" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E162" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B168" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C168" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D168" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E168" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B169" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C169" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D169" s="4">
+        <v>22</v>
+      </c>
+      <c r="E169" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B170" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C170" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D170" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E170" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B176" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C176" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D176" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E176" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B177" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="C177" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D177" s="4">
+        <v>3389</v>
+      </c>
+      <c r="E177" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B178" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C178" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D178" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E178" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B184" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C184" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D184" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E184" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B185" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C185" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D185" s="4">
+        <v>22</v>
+      </c>
+      <c r="E185" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B186" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C186" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D186" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E186" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B192" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C192" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D192" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E192" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B193" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C193" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D193" s="4">
+        <v>22</v>
+      </c>
+      <c r="E193" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B194" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C194" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D194" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E194" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B200" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C200" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D200" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E200" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B201" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C201" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D201" s="4">
+        <v>80</v>
+      </c>
+      <c r="E201" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B202" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C202" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D202" s="4">
+        <v>541</v>
+      </c>
+      <c r="E202" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B203" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C203" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D203" s="4">
+        <v>22</v>
+      </c>
+      <c r="E203" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B204" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C204" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D204" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E204" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B205" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C205" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D205" s="4">
+        <v>10443</v>
+      </c>
+      <c r="E205" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B206" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C206" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D206" s="4">
+        <v>8009</v>
+      </c>
+      <c r="E206" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B207" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C207" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D207" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E207" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B208" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C208" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D208" s="4">
+        <v>703</v>
+      </c>
+      <c r="E208" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B209" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="C209" t="s" s="4">
+        <v>89</v>
+      </c>
+      <c r="D209" s="4">
+        <v>53</v>
+      </c>
+      <c r="E209" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B210" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C210" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D210" s="4">
+        <v>8900</v>
+      </c>
+      <c r="E210" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B211" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C211" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D211" s="4">
+        <v>443</v>
+      </c>
+      <c r="E211" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B212" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C212" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D212" s="4">
+        <v>8010</v>
+      </c>
+      <c r="E212" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B213" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C213" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D213" s="4">
+        <v>8008</v>
+      </c>
+      <c r="E213" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B214" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C214" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D214" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E214" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B220" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C220" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D220" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E220" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B221" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C221" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D221" s="4">
+        <v>22</v>
+      </c>
+      <c r="E221" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B222" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C222" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D222" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E222" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B228" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C228" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D228" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E228" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B229" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C229" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D229" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E229" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B230" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C230" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D230" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E230" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B236" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C236" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D236" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E236" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B237" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C237" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D237" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E237" t="s" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B238" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C238" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D238" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E238" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B244" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C244" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D244" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E244" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B245" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C245" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D245" s="4">
+        <v>22</v>
+      </c>
+      <c r="E245" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B246" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="C246" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D246" s="4">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B247" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C247" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D247" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E247" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B253" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C253" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D253" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E253" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B254" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="C254" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D254" s="4">
+        <v>80</v>
+      </c>
+      <c r="E254" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B255" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="C255" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D255" s="4">
+        <v>443</v>
+      </c>
+      <c r="E255" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B256" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C256" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D256" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E256" t="s" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B262" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C262" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D262" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E262" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B263" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C263" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D263" s="4">
+        <v>22</v>
+      </c>
+      <c r="E263" t="s" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B264" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="C264" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="D264" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="E264" t="s" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B265" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C265" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D265" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E265" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B271" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C271" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D271" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E271" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B272" t="s" s="4">
+        <v>108</v>
+      </c>
+      <c r="C272" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D272" s="4">
+        <v>3389</v>
+      </c>
+      <c r="E272" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B273" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C273" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D273" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E273" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B275" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B276" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B279" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C279" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D279" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E279" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B280" t="s" s="4">
+        <v>98</v>
+      </c>
+      <c r="C280" t="s" s="4">
+        <v>82</v>
+      </c>
+      <c r="D280" s="4">
+        <v>22</v>
+      </c>
+      <c r="E280" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B281" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C281" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D281" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E281" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="B287" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C287" t="s" s="3">
+        <v>77</v>
+      </c>
+      <c r="D287" t="s" s="3">
+        <v>78</v>
+      </c>
+      <c r="E287" t="s" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s" s="1">
+        <v>80</v>
+      </c>
+      <c r="B288" t="s" s="4">
+        <v>187</v>
+      </c>
+      <c r="C288" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="D288" t="s" s="4">
+        <v>188</v>
+      </c>
+      <c r="E288" t="s" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s" s="1">
+        <v>114</v>
+      </c>
+      <c r="B289" t="s" s="4">
+        <v>115</v>
+      </c>
+      <c r="C289" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="D289" t="s" s="4">
+        <v>116</v>
+      </c>
+      <c r="E289" t="s" s="4">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:E183"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B189:E189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B226:E226"/>
+    <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:E234"/>
+    <mergeCell ref="B235:E235"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B241:E241"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B249:E249"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B251:E251"/>
+    <mergeCell ref="B252:E252"/>
+    <mergeCell ref="B258:E258"/>
+    <mergeCell ref="B259:E259"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="B267:E267"/>
+    <mergeCell ref="B268:E268"/>
+    <mergeCell ref="B269:E269"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B275:E275"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:E277"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B283:E283"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="B286:E286"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample/aws_configuration.xlsx
+++ b/sample/aws_configuration.xlsx
@@ -10,13 +10,14 @@
     <sheet name="EC2(summary)" sheetId="1" r:id="rId4"/>
     <sheet name="EC2(detail)" sheetId="2" r:id="rId5"/>
     <sheet name="SecurityGroup" sheetId="3" r:id="rId6"/>
+    <sheet name="EBS" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="216">
   <si>
     <t>InstanceId</t>
   </si>
@@ -54,6 +55,9 @@
     <t>10.175.10.173</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>ap-northeast-1a</t>
   </si>
   <si>
@@ -135,9 +139,6 @@
     <t>BlockDeviceMappings-2</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>/dev/sdb is vol-f600d409</t>
   </si>
   <si>
@@ -583,6 +584,87 @@
   </si>
   <si>
     <t>30 - -1</t>
+  </si>
+  <si>
+    <t>VolumeId</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>VolumeType</t>
+  </si>
+  <si>
+    <t>Iops</t>
+  </si>
+  <si>
+    <t>SnapshotId</t>
+  </si>
+  <si>
+    <t>CreateTime</t>
+  </si>
+  <si>
+    <t>State:</t>
+  </si>
+  <si>
+    <t>AttachmentInformation</t>
+  </si>
+  <si>
+    <t>DeleteOnTermination</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Encrypted</t>
+  </si>
+  <si>
+    <t>KmsKeyId</t>
+  </si>
+  <si>
+    <t>vol-b9730745</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>gp2</t>
+  </si>
+  <si>
+    <t>snap-4c979573</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>unsupported!!</t>
+  </si>
+  <si>
+    <t>vol-ca7f0b36</t>
+  </si>
+  <si>
+    <t>vol-bf31f140</t>
+  </si>
+  <si>
+    <t>snap-274f6eba</t>
+  </si>
+  <si>
+    <t>in-use</t>
+  </si>
+  <si>
+    <t>i-2c983689:/dev/xvda</t>
+  </si>
+  <si>
+    <t>vol-6907d396</t>
+  </si>
+  <si>
+    <t>i-cbe55a6e:/dev/xvda</t>
+  </si>
+  <si>
+    <t>vol-f600d409</t>
+  </si>
+  <si>
+    <t>i-cbe55a6e:/dev/sdb</t>
   </si>
 </sst>
 </file>
@@ -642,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -652,6 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,13 +1125,16 @@
       <c r="E2" t="s" s="2">
         <v>11</v>
       </c>
+      <c r="F2" t="s" s="2">
+        <v>12</v>
+      </c>
       <c r="G2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>8</v>
@@ -1060,10 +1146,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>12</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1092,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,7 +1197,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>9</v>
@@ -1119,35 +1208,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,43 +1255,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,59 +1302,59 @@
         <v>11</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>40</v>
@@ -1301,7 +1390,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,7 +1431,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>57</v>
@@ -1386,7 +1475,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>66</v>
@@ -1458,10 +1547,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1534,7 +1623,7 @@
         <v>71</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1553,10 +1642,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1665,10 +1754,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1947,10 +2036,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2059,10 +2148,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2188,10 +2277,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2266,10 +2355,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2342,7 +2431,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2361,10 +2450,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2473,10 +2562,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2568,10 +2657,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2663,10 +2752,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2758,10 +2847,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -2853,10 +2942,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2948,10 +3037,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3077,10 +3166,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -3189,10 +3278,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -3265,7 +3354,7 @@
         <v>71</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3284,7 +3373,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>143</v>
@@ -3379,10 +3468,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -3491,10 +3580,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -3586,10 +3675,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -3681,10 +3770,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -3776,10 +3865,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -3871,10 +3960,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -4170,10 +4259,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4265,10 +4354,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4360,10 +4449,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4455,10 +4544,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -4567,10 +4656,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -4679,7 +4768,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>143</v>
@@ -4791,10 +4880,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -4886,10 +4975,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -4981,10 +5070,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -5174,4 +5263,278 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="1">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>195</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>196</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>197</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>198</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>199</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D2" s="2">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="F2" s="5">
+        <v>42198.6005960301</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L2" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D3" s="2">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42198.6133403125</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D4" s="2">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="F4" s="5">
+        <v>42301.10336175926</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="F5" s="5">
+        <v>42309.499554062495</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42309.49955306713</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>